--- a/biology/Zoologie/Gehyra_mutilata/Gehyra_mutilata.xlsx
+++ b/biology/Zoologie/Gehyra_mutilata/Gehyra_mutilata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gehyra mutilata est une espèce de geckos de la famille des Gekkonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gehyra mutilata est une espèce de geckos de la famille des Gekkonidae.
 Il est appelé "margouillat blanc" ou "margouillat" sur l'île de La Réunion.
-C'est une des espèces de geckos parthénogénétiques à capacité de colonisation élevée[2].
+C'est une des espèces de geckos parthénogénétiques à capacité de colonisation élevée.
 </t>
         </is>
       </c>
@@ -513,13 +525,15 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1],[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre, :
 en Australie, en Papouasie-Nouvelle-Guinée, aux Salomon, au Vanuatu, aux Fidji, aux Tonga, aux Samoa, aux îles Cook, à Nauru, aux États fédérés de Micronésie et à Guam ;
 en Indonésie, aux Philippines, à Singapour, en Malaisie, en Thaïlande, au Viêt Nam, dans le sud de la Chine, à Taïwan, dans l'archipel Nansei au Japon, en Inde, au Sri Lanka ;
 à Madagascar, à Maurice, à La Réunion, aux Seychelles et en Guyane.
-Elle a été introduite en Nouvelle-Zélande, au Mexique et à Hawaï et en Californie aux États-Unis. A La Réunion, l'espèce est présente depuis le 18e siècle[4].
+Elle a été introduite en Nouvelle-Zélande, au Mexique et à Hawaï et en Californie aux États-Unis. A La Réunion, l'espèce est présente depuis le 18e siècle.
 </t>
         </is>
       </c>
@@ -548,11 +562,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un gecko est assez petit, avec un corps fin et une longue queue, près de la moitié de la longueur totale, qui est pincée à la base. La couleur de base est gris-rosé, avec de nombreux points plus ou moins clairs ; terne dans la journée, translucide la nuit.
 Son cri est caractéristique : "guek guek guek". Il est insectivore et se nourrit plutôt la nuit, lorsque ses proies s'approchent d'une source lumineuse.
-Ses pattes ventousées lui permettent des déplacements assurés sur les murs et plafonds. Très commun dans les maisons, il peut-être la proie de l'araignée dite "Babouk", Heteropoda venatoria[4].
+Ses pattes ventousées lui permettent des déplacements assurés sur les murs et plafonds. Très commun dans les maisons, il peut-être la proie de l'araignée dite "Babouk", Heteropoda venatoria.
 </t>
         </is>
       </c>
@@ -581,7 +597,9 @@
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce gecko a été figuré sur un timbre du Kiribati de 1986 (35 c.).
 </t>
@@ -612,7 +630,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Wiegmann, 1835 "1834" : Beiträge zur Zoologie gesammelt auf einer Reise um die Erde. Siebente Abhandlung. Amphibien. Nova Acta Physico-Medica, Academiae Caesarae Leopoldino-Carolinae, Halle, vol. 17, p. 185-268 (texte intégral).</t>
         </is>
